--- a/Especificación/TP2_2021i_-_Esquema_estrella.xlsx
+++ b/Especificación/TP2_2021i_-_Esquema_estrella.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnube1-my.sharepoint.com/personal/jaraya_itcr_ac_cr/Documents/IC-4302 Bases de datos II/Tareas programadas/TP2 2021i - Alquiler de películas - Replicación OLAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 SEMESTRE 2021\BASES 2\PROYECTOS\Proyecto2-BDII\DB2_Replication\Especificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5A5CB10E-E12F-4708-A506-41688F447CE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{861B44E4-62E2-4C72-897C-E68C88B1BB70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43939C-BF4A-4BE3-903B-42310D22C781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13365" xr2:uid="{6A558E13-48CB-45B8-8695-8178965E7779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A558E13-48CB-45B8-8695-8178965E7779}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +308,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -381,14 +401,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2238,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F30A7-6F1D-4D9C-ABDD-EDB9B9DF158C}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,6 +2274,7 @@
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -2301,10 +2324,10 @@
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="8"/>
+      <c r="R2" s="10"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -2333,8 +2356,8 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
@@ -2389,10 +2412,10 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
@@ -2415,10 +2438,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
@@ -2443,10 +2466,10 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
@@ -3108,7 +3131,7 @@
     <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3117,7 +3140,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="9" t="s">
         <v>46</v>
       </c>
       <c r="M33" s="1"/>
@@ -3132,7 +3155,7 @@
     <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="1"/>
@@ -3143,7 +3166,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="9" t="s">
         <v>59</v>
       </c>
       <c r="M34" s="1"/>
@@ -3158,7 +3181,7 @@
     <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="1"/>
@@ -3169,7 +3192,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="9" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="1"/>
@@ -3184,7 +3207,7 @@
     <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="1"/>
@@ -3195,14 +3218,14 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3210,7 +3233,7 @@
     <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="1"/>
@@ -3221,7 +3244,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3234,7 +3257,7 @@
     <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3243,7 +3266,7 @@
       <c r="I38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="9" t="s">
         <v>51</v>
       </c>
       <c r="M38" s="1"/>
@@ -3257,7 +3280,7 @@
     <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="1"/>
@@ -3268,7 +3291,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="M39" s="1"/>
@@ -3283,7 +3306,7 @@
     <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="1"/>
@@ -3294,7 +3317,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="M40" s="1"/>
@@ -3309,7 +3332,7 @@
     <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="1"/>
@@ -3320,7 +3343,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="9" t="s">
         <v>49</v>
       </c>
       <c r="M41" s="1"/>
@@ -3335,7 +3358,7 @@
     <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="1"/>
@@ -3359,7 +3382,7 @@
     <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3381,7 +3404,7 @@
     <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="1"/>
@@ -3407,7 +3430,7 @@
     <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="1"/>
@@ -3431,7 +3454,7 @@
     <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="1"/>
@@ -3576,12 +3599,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3808,15 +3828,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C438E6-DF9D-42B0-A9EA-FA1240149A84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E05DBD9-4B78-4917-8D29-4AA4447EF189}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e900ef51-ded8-4310-a735-ae6985ccbf88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4fae8e08-12a3-4c74-b5a1-7ab84200bc8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3841,18 +3873,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E05DBD9-4B78-4917-8D29-4AA4447EF189}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C438E6-DF9D-42B0-A9EA-FA1240149A84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e900ef51-ded8-4310-a735-ae6985ccbf88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4fae8e08-12a3-4c74-b5a1-7ab84200bc8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>